--- a/database/industries/dode/shesadaf/product/quarterly.xlsx
+++ b/database/industries/dode/shesadaf/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8CFED-0CED-4615-9CA6-3865F3CE26AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618957A-9C41-479E-B9E5-DD12DF3FCCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -201,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -234,12 +249,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,16 +565,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -574,8 +583,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,8 +600,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +617,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -608,8 +632,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -620,8 +649,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -632,8 +666,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -642,8 +681,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -664,8 +708,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -674,100 +733,165 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9">
+        <v>41413</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
         <v>-35852656</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>14071</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>15138</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>14395</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>10337742</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10766810</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11">
+        <v>10426135</v>
+      </c>
+      <c r="I11" s="11">
+        <v>11400740</v>
+      </c>
+      <c r="J11" s="11">
         <v>14074980</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>10337742</v>
+      </c>
+      <c r="F13" s="13">
+        <v>10766810</v>
+      </c>
+      <c r="G13" s="13">
+        <v>41413</v>
+      </c>
+      <c r="H13" s="13">
+        <v>10426135</v>
+      </c>
+      <c r="I13" s="13">
+        <v>11400740</v>
+      </c>
+      <c r="J13" s="13">
         <v>14074980</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>-35852656</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>14071</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>15138</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>14395</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -776,8 +900,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -786,8 +915,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -796,10 +930,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -818,8 +957,23 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -828,134 +982,241 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="11">
         <v>16385</v>
       </c>
-      <c r="H20" s="11">
+      <c r="M20" s="11">
         <v>11901</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>11571</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
+        <v>12228598</v>
+      </c>
+      <c r="F21" s="9">
+        <v>10583325</v>
+      </c>
+      <c r="G21" s="9">
+        <v>10939530</v>
+      </c>
+      <c r="H21" s="9">
+        <v>9594290</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="9">
         <v>31279095</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+        <v>19931351</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
+        <v>12228598</v>
+      </c>
+      <c r="F24" s="13">
+        <v>10583325</v>
+      </c>
+      <c r="G24" s="13">
+        <v>10944530</v>
+      </c>
+      <c r="H24" s="13">
+        <v>9594290</v>
+      </c>
+      <c r="I24" s="13">
+        <v>19931351</v>
+      </c>
+      <c r="J24" s="13">
         <v>31279095</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
         <v>16385</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M24" s="13">
         <v>11901</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N24" s="13">
         <v>11571</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -964,8 +1225,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -974,144 +1240,234 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <v>1136927</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1411714</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1968625</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2176989</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2513785</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2945873</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11">
+        <v>5670880</v>
+      </c>
+      <c r="M31" s="11">
+        <v>4616299</v>
+      </c>
+      <c r="N31" s="11">
+        <v>3735587</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>525</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13">
+        <v>1136927</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1411714</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1969150</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2176989</v>
+      </c>
+      <c r="I33" s="13">
+        <v>2513785</v>
+      </c>
+      <c r="J33" s="13">
         <v>2945873</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
         <v>5670880</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M33" s="13">
         <v>4616299</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N33" s="13">
         <v>3735587</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13">
-        <v>2945873</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
-        <v>5670880</v>
-      </c>
-      <c r="H32" s="13">
-        <v>4616299</v>
-      </c>
-      <c r="I32" s="13">
-        <v>3735587</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1120,8 +1476,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1130,122 +1491,197 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="J37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11">
+      <c r="C39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11">
+        <v>92973</v>
+      </c>
+      <c r="F40" s="11">
+        <v>133390</v>
+      </c>
+      <c r="G40" s="11">
+        <v>179955</v>
+      </c>
+      <c r="H40" s="11">
+        <v>226905</v>
+      </c>
+      <c r="I40" s="11">
+        <v>242956</v>
+      </c>
+      <c r="J40" s="11">
         <v>259363</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K40" s="11">
         <v>-94601</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L40" s="11">
         <v>346101922</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M40" s="11">
         <v>387891690</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N40" s="11">
         <v>322840463</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1254,8 +1690,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1264,144 +1705,234 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9">
+        <v>-54</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>-342</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>-877166</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-1007079</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-1393976</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-1471721</v>
+      </c>
+      <c r="I48" s="11">
+        <v>-1880093</v>
+      </c>
+      <c r="J48" s="11">
+        <v>-2409372</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-2737933</v>
+      </c>
+      <c r="L48" s="11">
+        <v>-4545645</v>
+      </c>
+      <c r="M48" s="11">
+        <v>-3350715</v>
+      </c>
+      <c r="N48" s="11">
+        <v>-2858906</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13">
+        <v>-877220</v>
+      </c>
+      <c r="F50" s="13">
+        <v>-1007079</v>
+      </c>
+      <c r="G50" s="13">
+        <v>-1394318</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-1471721</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-1880093</v>
+      </c>
+      <c r="J50" s="13">
         <v>-2409372</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K50" s="13">
         <v>-2737933</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L50" s="13">
         <v>-4545645</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M50" s="13">
         <v>-3350715</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N50" s="13">
         <v>-2858906</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13">
-        <v>-2409372</v>
-      </c>
-      <c r="F49" s="13">
-        <v>-2737933</v>
-      </c>
-      <c r="G49" s="13">
-        <v>-4545645</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-3350715</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-2858906</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1410,8 +1941,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1420,130 +1956,230 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9">
+        <v>-54</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>-342</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11">
+        <v>259761</v>
+      </c>
+      <c r="F57" s="11">
+        <v>404635</v>
+      </c>
+      <c r="G57" s="11">
+        <v>574649</v>
+      </c>
+      <c r="H57" s="11">
+        <v>705268</v>
+      </c>
+      <c r="I57" s="11">
+        <v>633692</v>
+      </c>
+      <c r="J57" s="11">
+        <v>536501</v>
+      </c>
+      <c r="K57" s="11">
+        <v>218895</v>
+      </c>
+      <c r="L57" s="11">
+        <v>1125235</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1265584</v>
+      </c>
+      <c r="N57" s="11">
+        <v>876681</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13">
+        <v>259707</v>
+      </c>
+      <c r="F59" s="13">
+        <v>404635</v>
+      </c>
+      <c r="G59" s="13">
+        <v>574307</v>
+      </c>
+      <c r="H59" s="13">
+        <v>705268</v>
+      </c>
+      <c r="I59" s="13">
+        <v>633692</v>
+      </c>
+      <c r="J59" s="13">
         <v>536501</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K59" s="13">
         <v>218895</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L59" s="13">
         <v>1125235</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M59" s="13">
         <v>1265584</v>
       </c>
-      <c r="I56" s="11">
-        <v>876681</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13">
-        <v>536501</v>
-      </c>
-      <c r="F58" s="13">
-        <v>218895</v>
-      </c>
-      <c r="G58" s="13">
-        <v>1125235</v>
-      </c>
-      <c r="H58" s="13">
-        <v>1265584</v>
-      </c>
-      <c r="I58" s="13">
+      <c r="N59" s="13">
         <v>876681</v>
       </c>
     </row>

--- a/database/industries/dode/shesadaf/product/quarterly.xlsx
+++ b/database/industries/dode/shesadaf/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618957A-9C41-479E-B9E5-DD12DF3FCCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2599A19-8F28-4572-B920-6DF0A58D254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -569,12 +569,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,7 +589,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -638,7 +638,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -687,7 +687,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -739,7 +739,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -750,35 +750,35 @@
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="9">
         <v>41413</v>
       </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
+      <c r="J10" s="9">
+        <v>-35852656</v>
       </c>
       <c r="K10" s="9">
-        <v>-35852656</v>
+        <v>14071</v>
       </c>
       <c r="L10" s="9">
-        <v>14071</v>
+        <v>15138</v>
       </c>
       <c r="M10" s="9">
-        <v>15138</v>
+        <v>14395</v>
       </c>
       <c r="N10" s="9">
-        <v>14395</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -787,23 +787,23 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>10337742</v>
-      </c>
-      <c r="F11" s="11">
         <v>10766810</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11">
+        <v>10426135</v>
       </c>
       <c r="H11" s="11">
-        <v>10426135</v>
+        <v>11400740</v>
       </c>
       <c r="I11" s="11">
-        <v>11400740</v>
-      </c>
-      <c r="J11" s="11">
         <v>14074980</v>
       </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
@@ -817,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -832,14 +832,14 @@
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -854,44 +854,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>10337742</v>
+        <v>10766810</v>
       </c>
       <c r="F13" s="13">
-        <v>10766810</v>
+        <v>41413</v>
       </c>
       <c r="G13" s="13">
-        <v>41413</v>
+        <v>10426135</v>
       </c>
       <c r="H13" s="13">
-        <v>10426135</v>
+        <v>11400740</v>
       </c>
       <c r="I13" s="13">
-        <v>11400740</v>
+        <v>14074980</v>
       </c>
       <c r="J13" s="13">
-        <v>14074980</v>
+        <v>-35852656</v>
       </c>
       <c r="K13" s="13">
-        <v>-35852656</v>
+        <v>14071</v>
       </c>
       <c r="L13" s="13">
-        <v>14071</v>
+        <v>15138</v>
       </c>
       <c r="M13" s="13">
-        <v>15138</v>
+        <v>14395</v>
       </c>
       <c r="N13" s="13">
-        <v>14395</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -906,7 +906,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -921,7 +921,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -936,7 +936,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -973,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -988,7 +988,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1002,8 +1002,8 @@
       <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
+      <c r="G19" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>17</v>
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1053,20 +1053,20 @@
       <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
+      <c r="K20" s="11">
+        <v>16385</v>
       </c>
       <c r="L20" s="11">
-        <v>16385</v>
+        <v>11901</v>
       </c>
       <c r="M20" s="11">
-        <v>11901</v>
+        <v>11571</v>
       </c>
       <c r="N20" s="11">
-        <v>11571</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20548</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -1075,23 +1075,23 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>12228598</v>
+        <v>10583325</v>
       </c>
       <c r="F21" s="9">
-        <v>10583325</v>
+        <v>10939530</v>
       </c>
       <c r="G21" s="9">
-        <v>10939530</v>
-      </c>
-      <c r="H21" s="9">
         <v>9594290</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="H21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9">
         <v>31279095</v>
       </c>
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K21" s="9" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1120,12 +1120,12 @@
       <c r="G22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="11">
         <v>19931351</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -1152,22 +1152,22 @@
         <v>0</v>
       </c>
       <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
         <v>5000</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>17</v>
+      <c r="K23" s="9">
+        <v>0</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -1176,47 +1176,47 @@
         <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>12228598</v>
+        <v>10583325</v>
       </c>
       <c r="F24" s="13">
-        <v>10583325</v>
+        <v>10944530</v>
       </c>
       <c r="G24" s="13">
-        <v>10944530</v>
+        <v>9594290</v>
       </c>
       <c r="H24" s="13">
-        <v>9594290</v>
+        <v>19931351</v>
       </c>
       <c r="I24" s="13">
-        <v>19931351</v>
+        <v>31279095</v>
       </c>
       <c r="J24" s="13">
-        <v>31279095</v>
+        <v>0</v>
       </c>
       <c r="K24" s="13">
-        <v>0</v>
+        <v>16385</v>
       </c>
       <c r="L24" s="13">
-        <v>16385</v>
+        <v>11901</v>
       </c>
       <c r="M24" s="13">
-        <v>11901</v>
+        <v>11571</v>
       </c>
       <c r="N24" s="13">
-        <v>11571</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20493</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1231,7 +1231,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1246,7 +1246,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1261,7 +1261,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1313,7 +1313,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
@@ -1327,8 +1327,8 @@
       <c r="F30" s="9">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
+      <c r="G30" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>17</v>
@@ -1352,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1361,37 +1361,37 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>1136927</v>
+        <v>1411714</v>
       </c>
       <c r="F31" s="11">
-        <v>1411714</v>
+        <v>1968625</v>
       </c>
       <c r="G31" s="11">
-        <v>1968625</v>
+        <v>2176989</v>
       </c>
       <c r="H31" s="11">
-        <v>2176989</v>
+        <v>2513785</v>
       </c>
       <c r="I31" s="11">
-        <v>2513785</v>
-      </c>
-      <c r="J31" s="11">
         <v>2945873</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>17</v>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11">
+        <v>5670880</v>
       </c>
       <c r="L31" s="11">
-        <v>5670880</v>
+        <v>4616299</v>
       </c>
       <c r="M31" s="11">
-        <v>4616299</v>
+        <v>3735587</v>
       </c>
       <c r="N31" s="11">
-        <v>3735587</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6402286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
@@ -1403,22 +1403,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
         <v>525</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>17</v>
+      <c r="K32" s="9">
+        <v>0</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
@@ -1427,47 +1427,47 @@
         <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19267</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>1136927</v>
+        <v>1411714</v>
       </c>
       <c r="F33" s="13">
-        <v>1411714</v>
+        <v>1969150</v>
       </c>
       <c r="G33" s="13">
-        <v>1969150</v>
+        <v>2176989</v>
       </c>
       <c r="H33" s="13">
-        <v>2176989</v>
+        <v>2513785</v>
       </c>
       <c r="I33" s="13">
-        <v>2513785</v>
+        <v>2945873</v>
       </c>
       <c r="J33" s="13">
-        <v>2945873</v>
+        <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>0</v>
+        <v>5670880</v>
       </c>
       <c r="L33" s="13">
-        <v>5670880</v>
+        <v>4616299</v>
       </c>
       <c r="M33" s="13">
-        <v>4616299</v>
+        <v>3735587</v>
       </c>
       <c r="N33" s="13">
-        <v>3735587</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6383019</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1512,7 +1512,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1564,7 +1564,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1612,37 +1612,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>92973</v>
+        <v>133390</v>
       </c>
       <c r="F40" s="11">
-        <v>133390</v>
+        <v>179955</v>
       </c>
       <c r="G40" s="11">
-        <v>179955</v>
+        <v>226905</v>
       </c>
       <c r="H40" s="11">
-        <v>226905</v>
+        <v>242956</v>
       </c>
       <c r="I40" s="11">
-        <v>242956</v>
+        <v>259363</v>
       </c>
       <c r="J40" s="11">
-        <v>259363</v>
+        <v>-94601</v>
       </c>
       <c r="K40" s="11">
-        <v>-94601</v>
+        <v>346101922</v>
       </c>
       <c r="L40" s="11">
-        <v>346101922</v>
+        <v>387891690</v>
       </c>
       <c r="M40" s="11">
-        <v>387891690</v>
+        <v>322840463</v>
       </c>
       <c r="N40" s="11">
-        <v>322840463</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>311577088</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>19</v>
       </c>
@@ -1677,11 +1677,11 @@
       <c r="M41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="9">
+        <v>350309091</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1726,7 +1726,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1778,7 +1778,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
@@ -1787,14 +1787,14 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
         <v>-342</v>
       </c>
+      <c r="G47" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" s="9" t="s">
         <v>17</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1826,37 +1826,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>-877166</v>
+        <v>-1007079</v>
       </c>
       <c r="F48" s="11">
-        <v>-1007079</v>
+        <v>-1393976</v>
       </c>
       <c r="G48" s="11">
-        <v>-1393976</v>
+        <v>-1471721</v>
       </c>
       <c r="H48" s="11">
-        <v>-1471721</v>
+        <v>-1880093</v>
       </c>
       <c r="I48" s="11">
-        <v>-1880093</v>
+        <v>-2409372</v>
       </c>
       <c r="J48" s="11">
-        <v>-2409372</v>
+        <v>-2737933</v>
       </c>
       <c r="K48" s="11">
-        <v>-2737933</v>
+        <v>-4545645</v>
       </c>
       <c r="L48" s="11">
-        <v>-4545645</v>
+        <v>-3350715</v>
       </c>
       <c r="M48" s="11">
-        <v>-3350715</v>
+        <v>-2858906</v>
       </c>
       <c r="N48" s="11">
-        <v>-2858906</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5518613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
@@ -1870,17 +1870,17 @@
       <c r="F49" s="9">
         <v>0</v>
       </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>17</v>
+      <c r="G49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
@@ -1895,44 +1895,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>-877220</v>
+        <v>-1007079</v>
       </c>
       <c r="F50" s="13">
-        <v>-1007079</v>
+        <v>-1394318</v>
       </c>
       <c r="G50" s="13">
-        <v>-1394318</v>
+        <v>-1471721</v>
       </c>
       <c r="H50" s="13">
-        <v>-1471721</v>
+        <v>-1880093</v>
       </c>
       <c r="I50" s="13">
-        <v>-1880093</v>
+        <v>-2409372</v>
       </c>
       <c r="J50" s="13">
-        <v>-2409372</v>
+        <v>-2737933</v>
       </c>
       <c r="K50" s="13">
-        <v>-2737933</v>
+        <v>-4545645</v>
       </c>
       <c r="L50" s="13">
-        <v>-4545645</v>
+        <v>-3350715</v>
       </c>
       <c r="M50" s="13">
-        <v>-3350715</v>
+        <v>-2858906</v>
       </c>
       <c r="N50" s="13">
-        <v>-2858906</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5518613</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1947,7 +1947,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1962,7 +1962,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1977,7 +1977,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2029,7 +2029,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>22</v>
       </c>
@@ -2038,14 +2038,14 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
         <v>-342</v>
       </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" s="9" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -2077,37 +2077,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>259761</v>
+        <v>404635</v>
       </c>
       <c r="F57" s="11">
-        <v>404635</v>
+        <v>574649</v>
       </c>
       <c r="G57" s="11">
-        <v>574649</v>
+        <v>705268</v>
       </c>
       <c r="H57" s="11">
-        <v>705268</v>
+        <v>633692</v>
       </c>
       <c r="I57" s="11">
-        <v>633692</v>
+        <v>536501</v>
       </c>
       <c r="J57" s="11">
-        <v>536501</v>
+        <v>218895</v>
       </c>
       <c r="K57" s="11">
-        <v>218895</v>
+        <v>1125235</v>
       </c>
       <c r="L57" s="11">
-        <v>1125235</v>
+        <v>1265584</v>
       </c>
       <c r="M57" s="11">
-        <v>1265584</v>
+        <v>876681</v>
       </c>
       <c r="N57" s="11">
-        <v>876681</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>883673</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>19</v>
       </c>
@@ -2121,17 +2121,17 @@
       <c r="F58" s="9">
         <v>0</v>
       </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>17</v>
+      <c r="G58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
       </c>
       <c r="K58" s="9">
         <v>0</v>
@@ -2143,44 +2143,44 @@
         <v>0</v>
       </c>
       <c r="N58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19267</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>259707</v>
+        <v>404635</v>
       </c>
       <c r="F59" s="13">
-        <v>404635</v>
+        <v>574307</v>
       </c>
       <c r="G59" s="13">
-        <v>574307</v>
+        <v>705268</v>
       </c>
       <c r="H59" s="13">
-        <v>705268</v>
+        <v>633692</v>
       </c>
       <c r="I59" s="13">
-        <v>633692</v>
+        <v>536501</v>
       </c>
       <c r="J59" s="13">
-        <v>536501</v>
+        <v>218895</v>
       </c>
       <c r="K59" s="13">
-        <v>218895</v>
+        <v>1125235</v>
       </c>
       <c r="L59" s="13">
-        <v>1125235</v>
+        <v>1265584</v>
       </c>
       <c r="M59" s="13">
-        <v>1265584</v>
+        <v>876681</v>
       </c>
       <c r="N59" s="13">
-        <v>876681</v>
+        <v>864406</v>
       </c>
     </row>
   </sheetData>
